--- a/TimeSeriesCausality/data/3.xlsx
+++ b/TimeSeriesCausality/data/3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\78224\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\曹子轩\Desktop\TimeSeriesCausality\TimeSeriesCausality\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE0EFDF-9360-4E48-B5D2-D7F2DFBB8E2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F60174-49F5-4E62-91BF-EDD00D4CB5F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="17280" windowHeight="8473" xr2:uid="{03BDFEAD-AC2A-42C1-909F-BB826F76BCF3}"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="17280" windowHeight="8472" xr2:uid="{03BDFEAD-AC2A-42C1-909F-BB826F76BCF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,19 +35,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Theta_motor/degree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Theta_load/degree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SEA_torque/Nm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Noise/Nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output1/degree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output2/degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,6 +116,3211 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Input position/degree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$188</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="187"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.86533915169031E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1192034657736299E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7825477932929699E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29098834484129699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67774807647120905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.15818105870534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.83473845263324</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7438433887389202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.75999700692913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2437939349946898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9068345948439402</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.4606966149456397</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.1999193981105503</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.043736580540299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.007301798611101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.452610223051501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.6335867000744</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.633557568774201</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.615091582896898</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.536413177860702</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.1930969795606</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.115397283273701</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.701740093910001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.3298377650605</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.632634645172299</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.144811573980601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.314952419622699</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.531695488854499</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.531695488854599</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.531695488854801</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28.733871367676201</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28.9213768328306</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29.2520011287451</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29.4686175218607</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29.842724578355199</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.9408018528481</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29.9910641720885</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29.9408018528481</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29.7250494722391</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29.4686175218607</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>28.8983336917148</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.531695488854599</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27.7774290801174</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.144811573980601</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.9741826654544</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.3298377650605</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23.828101693128598</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23.115397283273701</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>21.632052204368499</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20.536413177860702</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18.546617545641698</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17.633557568774201</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15.1802876987313</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14.452610223051501</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11.528040242612899</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11.043736580540299</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.5749039159139393</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.46069661494563</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.58796658122432</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.7599970069291202</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.3062436459253</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00E+00">
+                  <c:v>3.67394039744206E-15</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-2.67030360006253</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-3.75999700692913</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-6.6902132911833103</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-7.4606966149456504</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-9.6846276460181109</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-11.043736580540401</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-13.8417273965803</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-14.452610223051501</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-16.620442229888901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-17.633557568774201</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-19.524032643623499</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-20.536413177860702</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-22.6042338667331</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-23.115397283273701</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-25.0633394470611</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-25.3298377650605</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-26.559171852654799</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-27.144811573980601</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-28.019046390293301</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-28.531695488854599</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-29.2485943237943</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-29.4686175218607</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-29.873379810782399</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-29.9408018528481</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-29.994851162840899</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-29.9408018528481</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-29.632685388660299</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-29.4686175218607</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-28.7761522114134</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-28.531695488854599</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-27.762941178272399</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-27.144811573980601</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-25.889899526642999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-25.3298377650605</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-23.46479766249</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-23.115397283273701</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-21.2524800928113</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-20.536413177860702</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-18.319647946547601</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-17.633557568774201</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-14.8785668108736</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-14.4526102230514</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-12.267689185519499</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-11.043736580540299</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-8.0262099907751594</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-7.46069661494563</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-4.5948667941771797</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-3.75999700692911</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="0.00E+00">
+                  <c:v>-7.3478807948841199E-15</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.97568295269016</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.75999700692915</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6.4128157877047398</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7.4606966149456504</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.8132566262529402</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.043736580540299</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>14.0156317811619</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>14.452610223051501</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>16.5757884818523</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>17.633557568774201</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>19.337911386129701</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>20.536413177860702</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>22.460396889885001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>23.115397283273701</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>25.077893156856199</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>25.3298377650605</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>26.497300272600199</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>27.144811573980601</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>28.012890763646801</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>28.531695488854599</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>29.245260443590499</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>29.4686175218607</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>29.891816083938199</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>29.9408018528481</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>29.977266730702201</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>29.9408018528481</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>29.732470223988301</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>29.4686175218607</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>28.875974040360202</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>28.531695488854599</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>27.726293872131599</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>27.144811573980601</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>25.8479298480861</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>25.3298377650605</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>23.5764973387795</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>23.115397283273701</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>21.629728535301901</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>20.536413177860702</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>18.436967848178401</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>17.633557568774201</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>14.7797457480409</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>14.4526102230514</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>12.784162932047</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>11.043736580540299</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>8.3097057698033296</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7.4606966149456104</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>5.2189044264383604</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.7599970069291202</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.63486243100363304</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="0.00E+00">
+                  <c:v>1.10218211923262E-14</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-3.1686279367203598</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-3.75999700692915</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-6.1000461150487899</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-7.4606966149456397</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-10.5119664682575</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-11.043736580540401</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-13.639038665819699</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-14.452610223051501</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-17.633557568774201</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-19.618943217542199</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-20.536413177860599</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-22.6627968869117</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-23.115397283273701</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-25.024431255831502</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-25.3298377650605</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-26.721637920472499</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-27.144811573980601</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-28.3230727508213</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-28.531695488854599</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-29.1343357721533</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-29.4686175218607</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-29.850467212827699</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-29.9408018528482</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-29.981658589333101</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-29.9408018528481</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3319-4019-8891-75CC1D7BC599}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Output1/degree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$188</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="187"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5622334899655094E-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.41405778840243E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.92713685150009E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.31422556620978E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6533129548465002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.17617735791723E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>3.9742386512593902E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.107675059599491</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.221296392243644</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.44147001050669299</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.73636192379529297</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.84136497230348295</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>1.18365189598389</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>1.5654686816844701</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>2.0121793429233601</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>2.3850722371347</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>3.0516515318780901</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>3.4110965881561999</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>4.25826748831647</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>4.7254509380519796</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>5.7017976217340003</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>6.3327124652573099</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>7.6018358592839199</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>8.1840738456116906</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>9.5967998115696105</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>10.2516568483295</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>12.056766557538699</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>12.457677295429299</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>12.4576772954294</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>12.457677295429701</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>12.859259754505199</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>13.260752227057299</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>14.0618249336895</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>14.6846421705362</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>16.191137754069501</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>16.876010756557701</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>18.361588627151001</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>19.0014153848376</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>20.168685928258899</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>20.974598738788799</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>22.155140589458998</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>22.710239964607499</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>23.589150552123598</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>24.1501804086516</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>24.925957583488099</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>25.250161807693999</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>25.812151749320702</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>26.004237176341501</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>26.2815071087016</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>26.395791800654901</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>26.446619507885998</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>26.4117429303557</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>26.1624162785245</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>26.047857612394701</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>25.410548879335099</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>25.2785007218049</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>24.4849139516283</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>24.062477056648699</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>22.8126662815922</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>22.412585530665901</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>21.124703411465799</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>20.377652497250601</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>18.7236765220404</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>18.0009316803757</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>15.925404097107499</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>15.3475134343664</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>13.600406021496401</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>12.4706579498595</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>9.9668201760698594</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>9.3843685281886398</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>7.1919982818385098</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>6.0941694514249001</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>3.91510888741555</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>2.6729373996880899</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>-6.7623798020405093E-2</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>-0.79542627237192298</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>-3.8052997003259699</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>-4.2519744774038202</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>-6.4607585016997202</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>-7.6217855242105399</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>-9.5449884473668707</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>-10.830342034014</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>-13.0063951224757</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>-13.845492693601599</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>-16.033915164385199</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>-16.6687992333331</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>-18.367526777442901</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>-19.2376387531822</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>-20.9436931306719</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>-21.4787822553151</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>-22.982069082868101</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>-23.362895030666301</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>-24.300632723651599</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>-24.866640630408298</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>-25.7157981331186</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>-26.0045569893745</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>-26.681088778548901</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>-26.767461266548001</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>-27.053686478886199</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>-27.095648996106199</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>-27.047011361618701</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>-26.9854663754789</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>-26.555924407127101</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>-26.465504400613799</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>-25.905342262072899</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>-25.524286967362599</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>-24.402218642506199</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>-24.164845230603799</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>-22.848155896844801</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>-22.430289225853599</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>-20.364122760521202</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>-18.511376803812801</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>-17.989753320193401</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>-16.123600802309099</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>-15.3420653082719</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>-13.486995119962099</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>-12.4565183026205</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>-9.7639483423656799</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>-9.3412490439089098</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="General">
+                  <c:v>-7.17315218759469</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="General">
+                  <c:v>-6.0175753141094699</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="General">
+                  <c:v>-4.0504351954374203</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="General">
+                  <c:v>-2.5847137479812399</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="General">
+                  <c:v>-4.6451214909565899E-2</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="General">
+                  <c:v>0.88260721991730196</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="General">
+                  <c:v>3.9230845030806201</c:v>
+                </c:pt>
+                <c:pt idx="127" formatCode="General">
+                  <c:v>4.3470599259287201</c:v>
+                </c:pt>
+                <c:pt idx="128" formatCode="General">
+                  <c:v>6.4488641158831497</c:v>
+                </c:pt>
+                <c:pt idx="129" formatCode="General">
+                  <c:v>7.7381693169731296</c:v>
+                </c:pt>
+                <c:pt idx="130" formatCode="General">
+                  <c:v>9.6679878669429709</c:v>
+                </c:pt>
+                <c:pt idx="131" formatCode="General">
+                  <c:v>10.986574996393401</c:v>
+                </c:pt>
+                <c:pt idx="132" formatCode="General">
+                  <c:v>13.1921214864159</c:v>
+                </c:pt>
+                <c:pt idx="133" formatCode="General">
+                  <c:v>14.062565540716699</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="General">
+                  <c:v>16.447679815291</c:v>
+                </c:pt>
+                <c:pt idx="135" formatCode="General">
+                  <c:v>16.934986538105001</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="General">
+                  <c:v>19.059161277880399</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="General">
+                  <c:v>19.527054623267698</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="General">
+                  <c:v>20.8359158031219</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="General">
+                  <c:v>21.7668965676189</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="General">
+                  <c:v>23.096967640854199</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="General">
+                  <c:v>23.656014412182401</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="General">
+                  <c:v>24.645227103245301</c:v>
+                </c:pt>
+                <c:pt idx="143" formatCode="General">
+                  <c:v>25.178449457341902</c:v>
+                </c:pt>
+                <c:pt idx="144" formatCode="General">
+                  <c:v>26.038583188810101</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="General">
+                  <c:v>26.2919872663803</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="General">
+                  <c:v>26.888541048737</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="General">
+                  <c:v>26.9914898783992</c:v>
+                </c:pt>
+                <c:pt idx="148" formatCode="General">
+                  <c:v>27.202251520225801</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="General">
+                  <c:v>27.257495925971</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="General">
+                  <c:v>27.187736752257901</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="General">
+                  <c:v>27.110717780457701</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="General">
+                  <c:v>26.642985988789601</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="General">
+                  <c:v>26.571109961443799</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="General">
+                  <c:v>26.150086944985201</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="General">
+                  <c:v>25.619324312321499</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="General">
+                  <c:v>24.626604940583501</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="General">
+                  <c:v>24.2826562462912</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="General">
+                  <c:v>23.2837295408535</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="General">
+                  <c:v>22.561322276805299</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="General">
+                  <c:v>20.840638028137999</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="General">
+                  <c:v>20.463984099390501</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="General">
+                  <c:v>18.454155852775401</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="General">
+                  <c:v>18.0550409010661</c:v>
+                </c:pt>
+                <c:pt idx="164" formatCode="General">
+                  <c:v>16.4031894419346</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="General">
+                  <c:v>15.3870668848571</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="General">
+                  <c:v>12.9282886442506</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="General">
+                  <c:v>12.4714258502108</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="General">
+                  <c:v>10.0999179987669</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="General">
+                  <c:v>9.3050542922128798</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="General">
+                  <c:v>5.95742669856857</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="General">
+                  <c:v>3.6608230410528702</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="General">
+                  <c:v>2.5383807836311298</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="General">
+                  <c:v>-0.25246281350642802</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="General">
+                  <c:v>-0.88750057182673503</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="General">
+                  <c:v>-3.7780852694771898</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="General">
+                  <c:v>-4.2790258535624499</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="General">
+                  <c:v>-6.7548022436290296</c:v>
+                </c:pt>
+                <c:pt idx="178" formatCode="General">
+                  <c:v>-7.5881451973263996</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="General">
+                  <c:v>-10.2215956269907</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="General">
+                  <c:v>-10.7575735855165</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="General">
+                  <c:v>-12.5173049830439</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="General">
+                  <c:v>-13.727124211769</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="General">
+                  <c:v>-15.6966580303027</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="General">
+                  <c:v>-16.4906569342665</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="General">
+                  <c:v>-18.496970331872902</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="General">
+                  <c:v>-19.042049021939299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3319-4019-8891-75CC1D7BC599}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Output2/degree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$188</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="187"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.9714912141465104E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.78973649519805E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7775735319666302E-6</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>-1.2095312268468901E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>-6.5482171914561902E-4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>-1.89820243316093E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>-4.6528957307175999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>-9.7646183102768607E-3</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>-1.6131667389909399E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>-2.3985497780618401E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>-2.2169450123793399E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>-1.6542483416386301E-2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.7546603327884502E-2</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.17834582472008401</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.44919446548936398</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0.744707989915674</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>1.3828277703402301</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>1.7659455194034199</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>2.7022600537761998</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>3.2240447751185402</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>4.3292620602401701</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>5.0540481585797199</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>6.5392142102057997</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>7.23123538102117</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>8.8882322496055703</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>9.6398963829761009</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>11.686156017843601</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>12.138798087857699</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>12.138798087857801</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>12.1387980878582</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>12.593078917551599</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>13.049678192049299</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>13.968006017813</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>14.6876127730277</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>16.444783507689898</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>17.249147357020899</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>18.9692059199756</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>19.693997325705102</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>21.009133851085799</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>21.920707672767001</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>23.250050845181601</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>23.868724621891602</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>24.851018497787699</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>25.486550057435</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>26.385982158161202</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>26.772955322969601</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>27.4562231041877</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>27.693707065456699</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>28.053966829876899</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>28.224325752328401</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>28.3561087537242</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>28.348233874180298</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>28.127707680096702</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>28.010020136351201</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>27.301275366742399</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>27.149428346058201</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>26.2579390463473</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>25.7972718343891</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>24.443999586152099</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>24.0103968845144</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>22.6241254927669</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>21.827258034464101</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>20.079079221033499</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>19.320463704763402</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>17.138248145570898</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>16.527997441366502</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>14.662651307939999</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>13.439721203559801</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>10.699266344185601</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>10.0577606685889</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>7.6678921682814298</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>6.4891616284208604</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>4.1572920143817802</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>2.8243367994202502</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>-0.10713338779503399</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>-0.88176602265302095</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>-4.0675359972876599</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>-4.5386795140683196</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>-6.8573008885342102</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>-8.0696468849547607</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>-10.091157754884399</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>-11.460825479904999</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>-13.8070070389495</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>-14.718881535578699</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>-17.06966055497</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>-17.739941145003399</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>-19.524856872168701</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>-20.440009660591802</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>-22.236676145837901</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>-22.801089374164899</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>-24.392269607596401</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>-24.797841366971301</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>-25.815465558971098</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>-26.4499058313876</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>-27.404284407678102</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>-27.722336860949</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>-28.4375531867042</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>-28.5241420803283</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>-28.818505812450699</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>-28.8696798934828</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>-28.844319442484402</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>-28.7862421274518</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>-28.332353737197199</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>-28.232982253508201</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>-27.623289373505202</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>-27.215025151764301</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>-26.035197367881299</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>-25.7888172512525</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>-24.4213114378169</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>-23.9860608887656</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>-21.816148006627401</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>-19.861993685061702</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>-19.313018598296502</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>-17.335689640907699</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>-16.500290889487101</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>-14.494691029658499</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>-13.368028943048399</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>-10.4119244252075</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>-9.9476693662414792</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="General">
+                  <c:v>-7.6010184607070297</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="General">
+                  <c:v>-6.3746243108833101</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="General">
+                  <c:v>-4.2863410263591897</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="General">
+                  <c:v>-2.7131731938468802</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="General">
+                  <c:v>1.5492600660773599E-2</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="General">
+                  <c:v>1.00978403549726</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="General">
+                  <c:v>4.25118777463251</c:v>
+                </c:pt>
+                <c:pt idx="127" formatCode="General">
+                  <c:v>4.7026289298847397</c:v>
+                </c:pt>
+                <c:pt idx="128" formatCode="General">
+                  <c:v>6.9323988083775703</c:v>
+                </c:pt>
+                <c:pt idx="129" formatCode="General">
+                  <c:v>8.2938703714054505</c:v>
+                </c:pt>
+                <c:pt idx="130" formatCode="General">
+                  <c:v>10.345177231361101</c:v>
+                </c:pt>
+                <c:pt idx="131" formatCode="General">
+                  <c:v>11.7657907901174</c:v>
+                </c:pt>
+                <c:pt idx="132" formatCode="General">
+                  <c:v>14.143142172539999</c:v>
+                </c:pt>
+                <c:pt idx="133" formatCode="General">
+                  <c:v>15.074724542490699</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="General">
+                  <c:v>17.599820394728901</c:v>
+                </c:pt>
+                <c:pt idx="135" formatCode="General">
+                  <c:v>18.111280483726699</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="General">
+                  <c:v>20.321096989289401</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="General">
+                  <c:v>20.804486204124402</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="General">
+                  <c:v>22.174539950203101</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="General">
+                  <c:v>23.1758953302853</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="General">
+                  <c:v>24.6046855720226</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="General">
+                  <c:v>25.191836808451999</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="General">
+                  <c:v>26.226143081435001</c:v>
+                </c:pt>
+                <c:pt idx="143" formatCode="General">
+                  <c:v>26.7888961946311</c:v>
+                </c:pt>
+                <c:pt idx="144" formatCode="General">
+                  <c:v>27.700813980193001</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="General">
+                  <c:v>27.969541879911802</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="General">
+                  <c:v>28.5950489959903</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="General">
+                  <c:v>28.701220080804699</c:v>
+                </c:pt>
+                <c:pt idx="148" formatCode="General">
+                  <c:v>28.931469933504701</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="General">
+                  <c:v>29.0129334999755</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="General">
+                  <c:v>28.982626819214499</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="General">
+                  <c:v>28.911747886806399</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="General">
+                  <c:v>28.430939913662801</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="General">
+                  <c:v>28.355015542455501</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="General">
+                  <c:v>27.916361508618198</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="General">
+                  <c:v>27.375480609032898</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="General">
+                  <c:v>26.328628601246798</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="General">
+                  <c:v>25.951461963039801</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="General">
+                  <c:v>24.863400271146901</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="General">
+                  <c:v>24.092024368596199</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="General">
+                  <c:v>22.277763335462801</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="General">
+                  <c:v>21.882415810608599</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="General">
+                  <c:v>19.775034119376599</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="General">
+                  <c:v>19.356570624870901</c:v>
+                </c:pt>
+                <c:pt idx="164" formatCode="General">
+                  <c:v>17.599993435374799</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="General">
+                  <c:v>16.499010714942902</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="General">
+                  <c:v>13.8029825583065</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="General">
+                  <c:v>13.299583849087201</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="General">
+                  <c:v>10.7195817648182</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="General">
+                  <c:v>9.8685104425310897</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="General">
+                  <c:v>6.3331077784380403</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="General">
+                  <c:v>3.9216778169936402</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="General">
+                  <c:v>2.7381735897261898</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="General">
+                  <c:v>-0.209403548046557</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="General">
+                  <c:v>-0.88056417474444904</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="General">
+                  <c:v>-3.9370311810470802</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="General">
+                  <c:v>-4.4675969504787796</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="General">
+                  <c:v>-7.0794762629497798</c:v>
+                </c:pt>
+                <c:pt idx="178" formatCode="General">
+                  <c:v>-7.9546919553752096</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="General">
+                  <c:v>-10.7204145130034</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="General">
+                  <c:v>-11.285054162921799</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="General">
+                  <c:v>-13.1596982224637</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="General">
+                  <c:v>-14.471510603875799</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="General">
+                  <c:v>-16.628757185962598</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="General">
+                  <c:v>-17.501497088889099</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="General">
+                  <c:v>-19.703406144739201</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="General">
+                  <c:v>-20.300436654921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3319-4019-8891-75CC1D7BC599}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Noise/Nm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$188</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="187"/>
+                <c:pt idx="0">
+                  <c:v>-0.56208162734381895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.56208162734381895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.56208162734381895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.56208162734381895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.56208162734381895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.56208162734381895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.56208162734381895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.56208162734381895</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.56208162734381895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.90591076757102795</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.90591076757102795</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.90591076757102795</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35772943373663801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35772943373663801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35859281167322399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.35859281167322399</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86938579188165499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.86938579188165499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.23299584502028101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.23299584502028101</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.8832744135909099E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8832744135909099E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.661930692224731</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.661930692224731</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.93085577894507698</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.93085577894507698</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.89307672991095</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.89307672991095</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.89307672991095</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.9400386670325198E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.9400386670325198E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.9400386670325198E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.9400386670325198E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.9400386670325198E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34229876815448501</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34229876815448501</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.98460362757770503</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.98460362757770503</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.23316869849020999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.23316869849020999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.866315524962878</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.866315524962878</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.16502805108438601</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.16502805108438601</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.373545424720992</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.373545424720992</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.17795328571365801</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.17795328571365801</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.86087298945564505</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.86087298945564505</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.69233378101714604</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.69233378101714604</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.3857555172339699E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3857555172339699E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.81607021848488104</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.81607021848488104</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.30783792459770898</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.30783792459770898</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.16800128629803701</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.16800128629803701</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.40238118888921198</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.40238118888921198</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.82064166097931601</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.82064166097931601</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.52439607937093602</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.52439607937093602</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.47509401267166002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.47509401267166002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.90507097258468705</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.90507097258468705</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.47216376917071801</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.47216376917071801</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.34353154773988398</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.34353154773988398</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.26527713577508799</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.26527713577508799</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.51282097190284204</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.51282097190284204</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.98207477106809404</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.98207477106809404</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.26932265854874798</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.26932265854874798</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.50592222879916504</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.50592222879916504</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.96510057242824698</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.96510057242824698</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.44532080155113701</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.44532080155113701</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.50671166996784101</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.50671166996784101</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.30303714950710398</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.30303714950710398</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.85462823410268296</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.85462823410268296</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.26326943620260301</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.26326943620260301</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.76941425715080203</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.76941425715080203</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.45458006647163102</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.45458006647163102</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.12717718869781899</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.12717718869781899</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.53298955575236595</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.53298955575236595</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-4.4536469990637297E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-4.4536469990637297E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.52445113264231502</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.52445113264231502</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.45018631939319298</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.45018631939319298</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.28147004138746801</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.66698559916903499</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.66698559916903499</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-2.6965233975539502E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-2.6965233975539502E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.79531257310663905</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.79531257310663905</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.81841620328762399</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.81841620328762399</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.87887134490482099</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.87887134490482099</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.80930618467242699</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.80930618467242699</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9.0457894881468305E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9.0457894881468305E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.2583927285198003E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.2583927285198003E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.36193411767572797</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.36193411767572797</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.97328422403581605</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.97328422403581605</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-1.2046630034244899E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-1.2046630034244899E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.467710985554248</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.467710985554248</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.81853421023978601</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.81853421023978601</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.89552849991970196</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.89552849991970196</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.85250184957520203</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.85250184957520203</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.4141895814865401E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.4141895814865401E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.23171570395665</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.23171570395665</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.44583639942381398</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.44583639942381398</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.82763488396426399</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.82763488396426399</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5.9494787389177399E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>5.9494787389177399E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-7.1108350097717904E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-7.1108350097717904E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.88195990765558596</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.88195990765558596</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.89983203257426303</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.89983203257426303</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.52302852437041203</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.52302852437041203</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.54040909350868704</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.54040909350868704</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.65563460050878797</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.65563460050878797</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-0.74926924880094303</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.74926924880094303</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.96826459745329996</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.96826459745329996</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.37691060238374002</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.37691060238374002</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.73649426351138103</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.259086835784412</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.259086835784412</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.47244902861884303</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.47244902861884303</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.45082399689165098</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.45082399689165098</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.99891575798341803</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.99891575798341803</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.77714442730748301</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.77714442730748301</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.53361024313308802</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.53361024313308802</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.38735633780591</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.38735633780591</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.29796950393261801</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.29796950393261801</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.65474044841469E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3319-4019-8891-75CC1D7BC599}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="602547216"/>
+        <c:axId val="602549136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="602547216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602549136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="602549136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602547216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1021080</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4D9140-B6E4-4568-96ED-D3C2BD40C6BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,18 +3623,18 @@
   <dimension ref="A1:F188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.46875" customWidth="1"/>
-    <col min="3" max="3" width="18.703125" customWidth="1"/>
-    <col min="4" max="4" width="16.87890625" customWidth="1"/>
-    <col min="5" max="5" width="15.87890625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,19 +3642,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -469,7 +3674,7 @@
         <v>-0.56208162734381895</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4.9479657787608201E-5</v>
       </c>
@@ -489,7 +3694,7 @@
         <v>-0.56208162734381895</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2.9687794672564902E-4</v>
       </c>
@@ -509,7 +3714,7 @@
         <v>-0.56208162734381895</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.53386939141585E-3</v>
       </c>
@@ -529,7 +3734,7 @@
         <v>-0.56208162734381895</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7.7188266148668699E-3</v>
       </c>
@@ -549,7 +3754,7 @@
         <v>-0.56208162734381895</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.79793556968975E-2</v>
       </c>
@@ -569,7 +3774,7 @@
         <v>-0.56208162734381895</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.0729343275808001E-2</v>
       </c>
@@ -589,7 +3794,7 @@
         <v>-0.56208162734381895</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4.8698338925922298E-2</v>
       </c>
@@ -609,7 +3814,7 @@
         <v>-0.56208162734381895</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.2884563894473203E-2</v>
       </c>
@@ -629,7 +3834,7 @@
         <v>-0.56208162734381895</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -649,7 +3854,7 @@
         <v>-0.90591076757102795</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.13981416456593199</v>
       </c>
@@ -669,7 +3874,7 @@
         <v>-0.90591076757102795</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.18486784470966899</v>
       </c>
@@ -689,7 +3894,7 @@
         <v>-0.90591076757102795</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.2</v>
       </c>
@@ -709,7 +3914,7 @@
         <v>0.35772943373663801</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.24803195788228799</v>
       </c>
@@ -729,7 +3934,7 @@
         <v>0.35772943373663801</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.3</v>
       </c>
@@ -749,7 +3954,7 @@
         <v>0.35859281167322399</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.35687171265231199</v>
       </c>
@@ -769,7 +3974,7 @@
         <v>0.35859281167322399</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.4</v>
       </c>
@@ -789,7 +3994,7 @@
         <v>0.86938579188165499</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.467681103742427</v>
       </c>
@@ -809,7 +4014,7 @@
         <v>0.86938579188165499</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.5</v>
       </c>
@@ -829,7 +4034,7 @@
         <v>-0.23299584502028101</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.56710385231508598</v>
       </c>
@@ -849,7 +4054,7 @@
         <v>-0.23299584502028101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.6</v>
       </c>
@@ -869,7 +4074,7 @@
         <v>3.8832744135909099E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.66266414183041</v>
       </c>
@@ -889,7 +4094,7 @@
         <v>3.8832744135909099E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.7</v>
       </c>
@@ -909,7 +4114,7 @@
         <v>0.661930692224731</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.76980187219381502</v>
       </c>
@@ -929,7 +4134,7 @@
         <v>0.661930692224731</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.8</v>
       </c>
@@ -949,7 +4154,7 @@
         <v>-0.93085577894507698</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.869339155215893</v>
       </c>
@@ -969,7 +4174,7 @@
         <v>-0.93085577894507698</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.9</v>
       </c>
@@ -989,7 +4194,7 @@
         <v>-0.89307672991095</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.982018600762254</v>
       </c>
@@ -1009,7 +4214,7 @@
         <v>-0.89307672991095</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.99999999999999301</v>
       </c>
@@ -1029,7 +4234,7 @@
         <v>-0.89307672991095</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1049,7 +4254,7 @@
         <v>5.9400386670325198E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.00000000000001</v>
       </c>
@@ -1069,7 +4274,7 @@
         <v>5.9400386670325198E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1.01798139923776</v>
       </c>
@@ -1089,7 +4294,7 @@
         <v>5.9400386670325198E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1.03596279847551</v>
       </c>
@@ -1109,7 +4314,7 @@
         <v>5.9400386670325198E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1.071925596951</v>
       </c>
@@ -1129,7 +4334,7 @@
         <v>5.9400386670325198E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1.1000000000000001</v>
       </c>
@@ -1149,7 +4354,7 @@
         <v>0.34229876815448501</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1.16847987234618</v>
       </c>
@@ -1169,7 +4374,7 @@
         <v>0.34229876815448501</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1.2</v>
       </c>
@@ -1189,7 +4394,7 @@
         <v>-0.98460362757770503</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1.2694232851134799</v>
       </c>
@@ -1209,7 +4414,7 @@
         <v>-0.98460362757770503</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1.3</v>
       </c>
@@ -1229,7 +4434,7 @@
         <v>-0.23316869849020999</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1.3578211692247699</v>
       </c>
@@ -1249,7 +4454,7 @@
         <v>-0.23316869849020999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1.4</v>
       </c>
@@ -1269,7 +4474,7 @@
         <v>-0.866315524962878</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.4663254424438801</v>
       </c>
@@ -1289,7 +4494,7 @@
         <v>-0.866315524962878</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.5</v>
       </c>
@@ -1309,7 +4514,7 @@
         <v>-0.16502805108438601</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.5582412456005701</v>
       </c>
@@ -1329,7 +4534,7 @@
         <v>-0.16502805108438601</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1.6</v>
       </c>
@@ -1349,7 +4554,7 @@
         <v>0.373545424720992</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1.6670155847480399</v>
       </c>
@@ -1369,7 +4574,7 @@
         <v>0.373545424720992</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1.7</v>
       </c>
@@ -1389,7 +4594,7 @@
         <v>0.17795328571365801</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1.7696338206861699</v>
       </c>
@@ -1409,7 +4614,7 @@
         <v>0.17795328571365801</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1.8</v>
       </c>
@@ -1429,7 +4634,7 @@
         <v>0.86087298945564505</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1.85912832400253</v>
       </c>
@@ -1449,7 +4654,7 @@
         <v>0.86087298945564505</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1.9</v>
       </c>
@@ -1469,7 +4674,7 @@
         <v>0.69233378101714604</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1.9696346073114901</v>
       </c>
@@ -1489,7 +4694,7 @@
         <v>0.69233378101714604</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1509,7 +4714,7 @@
         <v>5.3857555172339699E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2.0778000812270698</v>
       </c>
@@ -1529,7 +4734,7 @@
         <v>5.3857555172339699E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2.1</v>
       </c>
@@ -1549,7 +4754,7 @@
         <v>-0.81607021848488104</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2.18613465516649</v>
       </c>
@@ -1569,7 +4774,7 @@
         <v>-0.81607021848488104</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2.2000000000000002</v>
       </c>
@@ -1589,7 +4794,7 @@
         <v>0.30783792459770898</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2.2693267241675401</v>
       </c>
@@ -1609,7 +4814,7 @@
         <v>0.30783792459770898</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2.2999999999999998</v>
       </c>
@@ -1629,7 +4834,7 @@
         <v>-0.16800128629803701</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2.3778209528199601</v>
       </c>
@@ -1649,7 +4854,7 @@
         <v>-0.16800128629803701</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2.4</v>
       </c>
@@ -1669,7 +4874,7 @@
         <v>0.40238118888921198</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2.4653398534684698</v>
       </c>
@@ -1689,7 +4894,7 @@
         <v>0.40238118888921198</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2.5</v>
       </c>
@@ -1709,7 +4914,7 @@
         <v>0.82064166097931601</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2.5709258692783798</v>
       </c>
@@ -1729,7 +4934,7 @@
         <v>0.82064166097931601</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2.6</v>
       </c>
@@ -1749,7 +4954,7 @@
         <v>0.52439607937093602</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2.67896828704722</v>
       </c>
@@ -1769,7 +4974,7 @@
         <v>0.52439607937093602</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2.7</v>
       </c>
@@ -1789,7 +4994,7 @@
         <v>-0.47509401267166002</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2.7615778934942998</v>
       </c>
@@ -1809,7 +5014,7 @@
         <v>-0.47509401267166002</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2.8</v>
       </c>
@@ -1829,7 +5034,7 @@
         <v>-0.90507097258468705</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2.8816235703875202</v>
       </c>
@@ -1849,7 +5054,7 @@
         <v>-0.90507097258468705</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2.9</v>
       </c>
@@ -1869,7 +5074,7 @@
         <v>0.47216376917071801</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2.9672622135022899</v>
       </c>
@@ -1889,7 +5094,7 @@
         <v>0.47216376917071801</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -1909,7 +5114,7 @@
         <v>-0.34353154773988398</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3.0639170520382901</v>
       </c>
@@ -1929,7 +5134,7 @@
         <v>-0.34353154773988398</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3.1</v>
       </c>
@@ -1949,7 +5154,7 @@
         <v>0.26527713577508799</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3.1790590221802</v>
       </c>
@@ -1969,7 +5174,7 @@
         <v>0.26527713577508799</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3.2</v>
       </c>
@@ -1989,7 +5194,7 @@
         <v>0.51282097190284204</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3.2869745337551199</v>
       </c>
@@ -2009,7 +5214,7 @@
         <v>0.51282097190284204</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3.3</v>
       </c>
@@ -2029,7 +5234,7 @@
         <v>0.98207477106809404</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3.3651273312243801</v>
       </c>
@@ -2049,7 +5254,7 @@
         <v>0.98207477106809404</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3.4</v>
       </c>
@@ -2069,7 +5274,7 @@
         <v>-0.26932265854874798</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3.45919565079994</v>
       </c>
@@ -2089,7 +5294,7 @@
         <v>-0.26932265854874798</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3.5</v>
       </c>
@@ -2109,7 +5314,7 @@
         <v>-0.50592222879916504</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3.5715188278073802</v>
       </c>
@@ -2129,7 +5334,7 @@
         <v>-0.50592222879916504</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3.6</v>
       </c>
@@ -2149,7 +5354,7 @@
         <v>0.96510057242824698</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3.67686102744798</v>
       </c>
@@ -2169,7 +5374,7 @@
         <v>0.96510057242824698</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3.7</v>
       </c>
@@ -2189,7 +5394,7 @@
         <v>0.44532080155113701</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3.7647436596355202</v>
       </c>
@@ -2209,7 +5414,7 @@
         <v>0.44532080155113701</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3.8</v>
       </c>
@@ -2229,7 +5434,7 @@
         <v>0.50671166996784101</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3.8746544323391801</v>
       </c>
@@ -2249,7 +5454,7 @@
         <v>0.50671166996784101</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3.9</v>
       </c>
@@ -2269,7 +5474,7 @@
         <v>0.30303714950710398</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3.97808451210014</v>
       </c>
@@ -2289,7 +5494,7 @@
         <v>0.30303714950710398</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -2309,7 +5514,7 @@
         <v>-0.85462823410268296</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4.0592570495724898</v>
       </c>
@@ -2329,7 +5534,7 @@
         <v>-0.85462823410268296</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4.0999999999999996</v>
       </c>
@@ -2349,7 +5554,7 @@
         <v>0.26326943620260301</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4.1714620796516497</v>
       </c>
@@ -2369,7 +5574,7 @@
         <v>0.26326943620260301</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4.2</v>
       </c>
@@ -2389,7 +5594,7 @@
         <v>0.76941425715080203</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4.2852949519379004</v>
       </c>
@@ -2409,7 +5614,7 @@
         <v>0.76941425715080203</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4.3</v>
       </c>
@@ -2429,7 +5634,7 @@
         <v>-0.45458006647163102</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4.3735252403104896</v>
       </c>
@@ -2449,7 +5654,7 @@
         <v>-0.45458006647163102</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4.4000000000000004</v>
       </c>
@@ -2469,7 +5674,7 @@
         <v>-0.12717718869781899</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4.4772656408477802</v>
       </c>
@@ -2489,7 +5694,7 @@
         <v>-0.12717718869781899</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4.5</v>
       </c>
@@ -2509,7 +5714,7 @@
         <v>0.53298955575236595</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4.5870477654983501</v>
       </c>
@@ -2529,7 +5734,7 @@
         <v>0.53298955575236595</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4.5999999999999996</v>
       </c>
@@ -2549,7 +5754,7 @@
         <v>-4.4536469990637297E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4.6647611725082401</v>
       </c>
@@ -2569,7 +5774,7 @@
         <v>-4.4536469990637297E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4.7</v>
       </c>
@@ -2589,7 +5794,7 @@
         <v>-0.52445113264231502</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4.7844728526130096</v>
       </c>
@@ -2609,7 +5814,7 @@
         <v>-0.52445113264231502</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4.8</v>
       </c>
@@ -2629,7 +5834,7 @@
         <v>-0.45018631939319298</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4.8776357369349697</v>
       </c>
@@ -2649,7 +5854,7 @@
         <v>-0.45018631939319298</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>4.9000000000000004</v>
       </c>
@@ -2669,7 +5874,7 @@
         <v>-0.28147004138746801</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5</v>
       </c>
@@ -2689,7 +5894,7 @@
         <v>-0.66698559916903499</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5.07906244828441</v>
       </c>
@@ -2709,7 +5914,7 @@
         <v>-0.66698559916903499</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5.0999999999999996</v>
       </c>
@@ -2729,7 +5934,7 @@
         <v>-2.6965233975539502E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5.1714280592586404</v>
       </c>
@@ -2749,7 +5954,7 @@
         <v>-2.6965233975539502E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5.2</v>
       </c>
@@ -2769,7 +5974,7 @@
         <v>0.79531257310663905</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5.2651856965450303</v>
       </c>
@@ -2789,7 +5994,7 @@
         <v>0.79531257310663905</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5.3</v>
       </c>
@@ -2809,7 +6014,7 @@
         <v>0.81841620328762399</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5.3868319451702602</v>
       </c>
@@ -2829,7 +6034,7 @@
         <v>0.81841620328762399</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5.4</v>
       </c>
@@ -2849,7 +6054,7 @@
         <v>-0.87887134490482099</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5.46584027414871</v>
       </c>
@@ -2869,7 +6074,7 @@
         <v>-0.87887134490482099</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5.5</v>
       </c>
@@ -2889,7 +6094,7 @@
         <v>0.80930618467242699</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5.5574370847089396</v>
       </c>
@@ -2909,7 +6114,7 @@
         <v>0.80930618467242699</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5.6</v>
       </c>
@@ -2929,7 +6134,7 @@
         <v>9.0457894881468305E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5.6732799371208804</v>
       </c>
@@ -2949,7 +6154,7 @@
         <v>9.0457894881468305E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5.7</v>
       </c>
@@ -2969,7 +6174,7 @@
         <v>3.2583927285198003E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5.7876774566327303</v>
       </c>
@@ -2989,7 +6194,7 @@
         <v>3.2583927285198003E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5.8</v>
       </c>
@@ -3009,7 +6214,7 @@
         <v>-0.36193411767572797</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5.8616127168363503</v>
       </c>
@@ -3029,7 +6234,7 @@
         <v>-0.36193411767572797</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5.9</v>
       </c>
@@ -3049,7 +6254,7 @@
         <v>0.97328422403581605</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5.9587390733185801</v>
       </c>
@@ -3069,7 +6274,7 @@
         <v>0.97328422403581605</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6</v>
       </c>
@@ -3089,7 +6294,7 @@
         <v>-1.2046630034244899E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6.0711216462759401</v>
       </c>
@@ -3109,7 +6314,7 @@
         <v>-1.2046630034244899E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6.1</v>
       </c>
@@ -3129,7 +6334,7 @@
         <v>-0.467710985554248</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6.1823984813956097</v>
       </c>
@@ -3149,7 +6354,7 @@
         <v>-0.467710985554248</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6.2</v>
       </c>
@@ -3169,7 +6374,7 @@
         <v>-0.81853421023978601</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6.2809815315776598</v>
       </c>
@@ -3189,7 +6394,7 @@
         <v>-0.81853421023978601</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6.3</v>
       </c>
@@ -3209,7 +6414,7 @@
         <v>0.89552849991970196</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6.3563540026327896</v>
       </c>
@@ -3229,7 +6434,7 @@
         <v>0.89552849991970196</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6.4</v>
       </c>
@@ -3249,7 +6454,7 @@
         <v>-0.85250184957520203</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6.4685234679744896</v>
       </c>
@@ -3269,7 +6474,7 @@
         <v>-0.85250184957520203</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6.5</v>
       </c>
@@ -3289,7 +6494,7 @@
         <v>1.4141895814865401E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6.5618125139557</v>
       </c>
@@ -3309,7 +6514,7 @@
         <v>1.4141895814865401E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6.6</v>
       </c>
@@ -3329,7 +6534,7 @@
         <v>-0.23171570395665</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6.6736604958687504</v>
       </c>
@@ -3349,7 +6554,7 @@
         <v>-0.23171570395665</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>6.7</v>
       </c>
@@ -3369,7 +6574,7 @@
         <v>-0.44583639942381398</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6.7805216453013601</v>
       </c>
@@ -3389,7 +6594,7 @@
         <v>-0.44583639942381398</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>6.8</v>
       </c>
@@ -3409,7 +6614,7 @@
         <v>0.82763488396426399</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>6.8592172789234196</v>
       </c>
@@ -3429,7 +6634,7 @@
         <v>0.82763488396426399</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6.9</v>
       </c>
@@ -3449,7 +6654,7 @@
         <v>5.9494787389177399E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6.9733282996797499</v>
       </c>
@@ -3469,7 +6674,7 @@
         <v>5.9494787389177399E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>7</v>
       </c>
@@ -3489,7 +6694,7 @@
         <v>-7.1108350097717904E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>7.0900632355420798</v>
       </c>
@@ -3509,7 +6714,7 @@
         <v>-7.1108350097717904E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>7.1</v>
       </c>
@@ -3529,7 +6734,7 @@
         <v>0.88195990765558596</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>7.14968382228962</v>
       </c>
@@ -3549,7 +6754,7 @@
         <v>0.88195990765558596</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>7.2</v>
       </c>
@@ -3569,7 +6774,7 @@
         <v>-0.89983203257426303</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>7.2766576137688803</v>
       </c>
@@ -3589,7 +6794,7 @@
         <v>-0.89983203257426303</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>7.3</v>
       </c>
@@ -3609,7 +6814,7 @@
         <v>0.52302852437041203</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>7.3608563228927402</v>
       </c>
@@ -3629,7 +6834,7 @@
         <v>0.52302852437041203</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>7.4</v>
       </c>
@@ -3649,7 +6854,7 @@
         <v>0.54040909350868704</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>7.48315849379527</v>
       </c>
@@ -3669,7 +6874,7 @@
         <v>0.54040909350868704</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>7.5</v>
       </c>
@@ -3689,7 +6894,7 @@
         <v>0.65563460050878797</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>7.5842075310236501</v>
       </c>
@@ -3709,7 +6914,7 @@
         <v>0.65563460050878797</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>7.6</v>
       </c>
@@ -3729,7 +6934,7 @@
         <v>-0.74926924880094303</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>7.6629450179332803</v>
       </c>
@@ -3749,7 +6954,7 @@
         <v>-0.74926924880094303</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>7.7</v>
       </c>
@@ -3769,7 +6974,7 @@
         <v>-0.96826459745329996</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>7.7848849232119797</v>
       </c>
@@ -3789,7 +6994,7 @@
         <v>-0.96826459745329996</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>7.8</v>
       </c>
@@ -3809,7 +7014,7 @@
         <v>0.37691060238374002</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7.8755753839401201</v>
       </c>
@@ -3829,7 +7034,7 @@
         <v>0.37691060238374002</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>7.9</v>
       </c>
@@ -3849,7 +7054,7 @@
         <v>0.73649426351138103</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>8</v>
       </c>
@@ -3869,7 +7074,7 @@
         <v>0.259086835784412</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>8.0672388911965403</v>
       </c>
@@ -3889,7 +7094,7 @@
         <v>0.259086835784412</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>8.1</v>
       </c>
@@ -3909,7 +7114,7 @@
         <v>0.47244902861884303</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>8.1814257758778606</v>
       </c>
@@ -3929,7 +7134,7 @@
         <v>0.47244902861884303</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>8.1999999999999993</v>
       </c>
@@ -3949,7 +7154,7 @@
         <v>0.45082399689165098</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>8.2850999417616595</v>
       </c>
@@ -3969,7 +7174,7 @@
         <v>0.45082399689165098</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>8.3000000000000007</v>
       </c>
@@ -3989,7 +7194,7 @@
         <v>0.99891575798341803</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>8.3745002911916995</v>
       </c>
@@ -4009,7 +7214,7 @@
         <v>0.99891575798341803</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>8.4</v>
       </c>
@@ -4029,7 +7234,7 @@
         <v>0.77714442730748301</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>8.4826712455555899</v>
       </c>
@@ -4049,7 +7254,7 @@
         <v>0.77714442730748301</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>8.5</v>
       </c>
@@ -4069,7 +7274,7 @@
         <v>-0.53361024313308802</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>8.5583675175715701</v>
       </c>
@@ -4089,7 +7294,7 @@
         <v>-0.53361024313308802</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>8.6</v>
       </c>
@@ -4109,7 +7314,7 @@
         <v>-0.38735633780591</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8.6705135176081196</v>
       </c>
@@ -4129,7 +7334,7 @@
         <v>-0.38735633780591</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>8.6999999999999993</v>
       </c>
@@ -4149,7 +7354,7 @@
         <v>-0.29796950393261801</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>8.7778280646073004</v>
       </c>
@@ -4169,7 +7374,7 @@
         <v>-0.29796950393261801</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>8.8000000000000007</v>
       </c>
@@ -4192,5 +7397,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>